--- a/海淀/皂君东里/新建 Microsoft Office Excel 工作表.xlsx
+++ b/海淀/皂君东里/新建 Microsoft Office Excel 工作表.xlsx
@@ -4543,24 +4543,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114062848"/>
-        <c:axId val="114064384"/>
+        <c:axId val="80958208"/>
+        <c:axId val="80959744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114062848"/>
+        <c:axId val="80958208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114064384"/>
+        <c:crossAx val="80959744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114064384"/>
+        <c:axId val="80959744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4568,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114062848"/>
+        <c:crossAx val="80958208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,7 +4581,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6635,24 +6635,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112261760"/>
-        <c:axId val="125766656"/>
+        <c:axId val="80980224"/>
+        <c:axId val="90574848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112261760"/>
+        <c:axId val="80980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125766656"/>
+        <c:crossAx val="90574848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125766656"/>
+        <c:axId val="90574848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,7 +6660,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112261760"/>
+        <c:crossAx val="80980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6673,7 +6673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6715,14 +6715,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>310</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
